--- a/biology/Botanique/Ankistrodesmus/Ankistrodesmus.xlsx
+++ b/biology/Botanique/Ankistrodesmus/Ankistrodesmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ankistrodesmus est un genre d'algue verte de la famille des Selenastraceae[3].
+Ankistrodesmus est un genre d'algue verte de la famille des Selenastraceae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre type Ankistrodesmus est composé du préfixe ankistro-, du grec αγκιστρο/ ankistro,  accrocher, et du suffixe –desmus, du grec δέσμω / désmo « lié ; mêlé ; attaché »[4] en références aux colonies attachées en grappes que forment ces organismes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre type Ankistrodesmus est composé du préfixe ankistro-, du grec αγκιστρο/ ankistro,  accrocher, et du suffixe –desmus, du grec δέσμω / désmo « lié ; mêlé ; attaché » en références aux colonies attachées en grappes que forment ces organismes.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ankistrodesmus est un organisme unicellulaire strict ou formant des colonies d'unicellulaires faiblement liées. Les cellules en forme de fibre sont soit droites, soit courbées, soit en spirale. Les cellules peuvent se trouver en grappes ou s'enrouler les unes autour des autres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankistrodesmus est un organisme unicellulaire strict ou formant des colonies d'unicellulaires faiblement liées. Les cellules en forme de fibre sont soit droites, soit courbées, soit en spirale. Les cellules peuvent se trouver en grappes ou s'enrouler les unes autour des autres.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A. acerosus
